--- a/testdatas/testcasedata.xlsx
+++ b/testdatas/testcasedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="21671" windowHeight="9840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="框架使用说明" sheetId="6" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>{"leave_amount":"$..leave_amount"}</t>
   </si>
   <si>
-    <t>[{"expression":"$..code","expected":0,"type":"equal"},{"expression":"$..msg","expected":"OK","type":"equal"},{"expression":"$..leave_amount","expected":#leave_amount#+1,"type":"equal"}]</t>
+    <t>[{"expression":"$..code","expected":0,"type":"equal"},{"expression":"$..msg","expected":"OK","type":"equal"},{"expression":"$..leave_amount","expected":round(#leave_amount#+1,2),"type":"equal"}]</t>
   </si>
   <si>
     <t>[{"sql":"select leave_amount from member where id='#member_id#'","expected":{'leave_amount':#leave_amount#+1},"type_db":"equal"}]</t>
@@ -232,7 +232,7 @@
     <t>{"member_id":#member_id#,"amount":2000}</t>
   </si>
   <si>
-    <t>[{"expression":"$..code","expected":0,"type":"equal"},{"expression":"$..msg","expected":"OK","type":"equal"},{"expression":"$..leave_amount","expected":#leave_amount#+2000,"type":"equal"}]</t>
+    <t>[{"expression":"$..code","expected":0,"type":"equal"},{"expression":"$..msg","expected":"OK","type":"equal"},{"expression":"$..leave_amount","expected":round(#leave_amount#+2000,2),"type":"equal"}]</t>
   </si>
   <si>
     <t>[{"sql":"select leave_amount from member where id='#member_id#'","expected":{'leave_amount':#leave_amount#+2000},"type_db":"equal"}]</t>
@@ -390,14 +390,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,84 +495,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,17 +519,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -542,13 +542,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,79 +698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,85 +716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,17 +747,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,6 +782,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,50 +844,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -852,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -864,133 +864,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1365,7 +1365,7 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1827,13 +1827,13 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="4.44444444444444" customWidth="1"/>
-    <col min="2" max="2" width="15.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="22.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="10.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="17.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="51.4444444444444" customWidth="1"/>
@@ -1894,7 +1894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" ht="144" spans="1:9">
+    <row r="3" ht="158.4" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" ht="144" spans="1:9">
+    <row r="4" ht="158.4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2039,7 +2039,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>

--- a/testdatas/testcasedata.xlsx
+++ b/testdatas/testcasedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21671" windowHeight="9840" activeTab="3"/>
+    <workbookView windowWidth="21671" windowHeight="8652"/>
   </bookViews>
   <sheets>
     <sheet name="框架使用说明" sheetId="6" r:id="rId1"/>
@@ -13,46 +13,154 @@
     <sheet name="充值接口" sheetId="4" r:id="rId4"/>
     <sheet name="新增项目接口" sheetId="5" r:id="rId5"/>
     <sheet name="审核项目接口" sheetId="8" r:id="rId6"/>
-    <sheet name="业务流" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="141">
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>含义</t>
+  </si>
+  <si>
+    <t>用法</t>
+  </si>
+  <si>
+    <t>实例</t>
+  </si>
+  <si>
+    <t>变量名</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>#name#</t>
+  </si>
+  <si>
+    <t>替换标识符</t>
+  </si>
+  <si>
+    <t>替换的规则，再请求数据、断言、url……如果有要替换的数据，统一使用#name#来表示</t>
+  </si>
+  <si>
+    <t>#leave_amount#</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
+    <t>用例名称</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>用例类型</t>
+  </si>
+  <si>
+    <t>说明该用例是作为何用处：setup（前置）、teardown（后置）、success（成功）、smoke（冒烟）、fail（异常失败用例）</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
     <t>method</t>
   </si>
   <si>
+    <t>接口请求方法</t>
+  </si>
+  <si>
+    <t>post/patch/get</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>以/开头（可参考接口文档）</t>
+  </si>
+  <si>
+    <t>/member/register</t>
+  </si>
+  <si>
+    <t>pre_sql</t>
+  </si>
+  <si>
+    <t>预先需执行的sql语句</t>
+  </si>
+  <si>
+    <t>update loan set `status`=5 where id=#loan_id#</t>
+  </si>
+  <si>
     <t>req_data</t>
   </si>
   <si>
+    <t>请求数据</t>
+  </si>
+  <si>
+    <t>不允许有格式化的内容出现，如空格，回车</t>
+  </si>
+  <si>
+    <t>extract</t>
+  </si>
+  <si>
+    <t>提取响应结果数据</t>
+  </si>
+  <si>
+    <t>提取响应结果中的数据作为全局变量，供后续接口使用
+1、必须是字典形式
+2、字典中key值为全局变量名，value为jsonpath表达式</t>
+  </si>
+  <si>
+    <t>{"leave_amount":"$..leave_amount"}</t>
+  </si>
+  <si>
     <t>assertion</t>
   </si>
   <si>
+    <t>响应结果断言</t>
+  </si>
+  <si>
+    <t>1、必须是列表形式
+2、列表中的成员，必须是字典形式
+3、字典必须有三个key:expression、expected、type（分别代表着jsonpath表达式、期望值、比对方式）
+4、type表示实际和期望如何去比对，有以下值可以使用：equal、contains（分别代表相等、包含）
+5、当字典存在需要在代码做运算的值，需要将加入round(运算表达式,2)，以让计算保留两位小数
+6、单元格中不允许有格式化的空格出现</t>
+  </si>
+  <si>
+    <t>[{"expression":"$..code","expected":0,"type":"equal"}]</t>
+  </si>
+  <si>
     <t>assert_db</t>
   </si>
   <si>
+    <t>数据库查询及断言</t>
+  </si>
+  <si>
+    <t>1、必须是列表形式
+2、列表中的成员，必须是字典形式
+3、字典必须有三个key:sql、expected、db_type（分别代表着sql语句、期望值、比对方式）
+4、db_type表示实际和期望如何去比对，有以下值可以使用：count（分别代表计数）</t>
+  </si>
+  <si>
     <t>注册成功-普通用户</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/member/register</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "#phone#","pwd": "123456789","reg_name": "py37小简"}</t>
+    <t>{"mobile_phone": "#phone#","pwd": "123456789","reg_name": "chloeee"}</t>
   </si>
   <si>
     <t>[{"expression":"$..code","expected":0,"type":"equal"},{"expression":"$..msg","expected":"OK","type":"equal"}]</t>
@@ -64,7 +172,7 @@
     <t>注册成功-管理员</t>
   </si>
   <si>
-    <t>{"mobile_phone": "18610100022","pwd": "123456789","reg_name": "py37小简","type":0}</t>
+    <t>{"mobile_phone": "18610100022","pwd": "123456789","reg_name": "chloeee","type":0}</t>
   </si>
   <si>
     <t>[{"expression":"$..code","expected":2,"type":"equal"},{"expression":"$..msg","expected":"账号已存在","type":"equal"}]</t>
@@ -190,12 +298,6 @@
     <t>{"mobile_phone": "18610100022","pwd": "1234567890"}</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>extract</t>
-  </si>
-  <si>
     <t>登录</t>
   </si>
   <si>
@@ -208,18 +310,12 @@
     <t>充值1元</t>
   </si>
   <si>
-    <t>success</t>
-  </si>
-  <si>
     <t>/member/recharge</t>
   </si>
   <si>
     <t>{"member_id":#member_id#,"amount":1}</t>
   </si>
   <si>
-    <t>{"leave_amount":"$..leave_amount"}</t>
-  </si>
-  <si>
     <t>[{"expression":"$..code","expected":0,"type":"equal"},{"expression":"$..msg","expected":"OK","type":"equal"},{"expression":"$..leave_amount","expected":round(#leave_amount#+1,2),"type":"equal"}]</t>
   </si>
   <si>
@@ -295,9 +391,6 @@
     <t>[{"sql":"select * from loan where title='借款项目#strftime#'","expected":1,"type_db":"count"}]</t>
   </si>
   <si>
-    <t>pre_sql</t>
-  </si>
-  <si>
     <t>普通用户-登录</t>
   </si>
   <si>
@@ -356,9 +449,6 @@
   </si>
   <si>
     <t>审核项目（审核前状态：审核不通过）---审核通过</t>
-  </si>
-  <si>
-    <t>update loan set `status`=5 where id=#loan_id#</t>
   </si>
   <si>
     <t>[{"sql":"select l.status from loan l where id=#loan_id#","expected":{'status': 5},"type_db":"equal"}]</t>
@@ -369,12 +459,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +479,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF393939"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -397,14 +506,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,46 +521,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,9 +542,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,6 +552,45 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,8 +619,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,7 +629,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,12 +644,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -560,19 +680,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,152 +828,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -744,6 +846,30 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -788,20 +914,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,24 +953,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,10 +969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -864,137 +981,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1027,6 +1144,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1347,14 +1500,429 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="9.88888888888889" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.1" customHeight="1" spans="1:29">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="1:29">
+      <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="13"/>
+      <c r="P2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" ht="38" customHeight="1" spans="1:14">
+      <c r="A4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:14">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="57.6" spans="1:14">
+      <c r="A7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" ht="43.2" spans="1:14">
+      <c r="A9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" ht="54" customHeight="1" spans="1:14">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="14"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="14"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="R1:AB1"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="C10:M13"/>
+    <mergeCell ref="C14:M17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1365,8 +1933,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1381,25 +1949,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="57.6" spans="1:7">
@@ -1407,22 +1975,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:6">
@@ -1430,19 +1998,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="57.6" spans="1:6">
@@ -1450,19 +2018,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" ht="57.6" spans="1:6">
@@ -1470,19 +2038,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="57.6" spans="1:6">
@@ -1490,19 +2058,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" ht="57.6" spans="1:6">
@@ -1510,19 +2078,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="57.6" spans="1:6">
@@ -1530,19 +2098,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="57.6" spans="1:6">
@@ -1550,19 +2118,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" ht="57.6" spans="1:6">
@@ -1570,19 +2138,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="1:6">
@@ -1590,19 +2158,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" ht="57.6" spans="1:6">
@@ -1610,19 +2178,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" ht="57.6" spans="1:6">
@@ -1630,19 +2198,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +2225,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1670,22 +2238,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -1694,19 +2262,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1715,19 +2283,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -1736,19 +2304,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1757,19 +2325,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1778,19 +2346,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1799,19 +2367,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -1826,8 +2394,8 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1844,31 +2412,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:7">
@@ -1876,22 +2444,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="158.4" spans="1:9">
@@ -1899,28 +2467,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" ht="158.4" spans="1:9">
@@ -1928,28 +2496,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" ht="158.4" spans="1:8">
@@ -1957,25 +2525,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" ht="158.4" spans="1:8">
@@ -1983,25 +2551,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="129.6" spans="1:8">
@@ -2009,22 +2577,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2056,31 +2624,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:7">
@@ -2088,45 +2656,45 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" ht="158.4" spans="2:9">
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2141,7 +2709,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2158,34 +2726,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:8">
@@ -2193,23 +2761,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" ht="72" spans="1:10">
@@ -2217,22 +2785,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2242,23 +2810,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="72" spans="1:10">
@@ -2266,25 +2834,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="86.4" spans="1:10">
@@ -2292,25 +2860,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="86.4" spans="1:10">
@@ -2318,28 +2886,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="86.4" spans="1:10">
@@ -2347,28 +2915,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="86.4" spans="1:10">
@@ -2376,48 +2944,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>